--- a/Algoritmo_Rota/Planilhas/BCU/PLN_81_35.xlsx
+++ b/Algoritmo_Rota/Planilhas/BCU/PLN_81_35.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,20 +429,30 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>inicio</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>min</t>
+          <t>ativos</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
+        <is>
+          <t>melhor rota</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>caminho</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -453,169 +463,86 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11293</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>12131</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9015</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2202585061391195</v>
+        <v>11538</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67, 20, 2, 46, 8, 26, 79, 49, 74, 70, 65, 1, 16, 21, 34, 13, 68, 54, 24, 15, 35, 44, 48, 5, 60, 42, 18, 41, 53, 36, 69, 38, 66, 37, 52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23 -&gt; 42 -&gt; 48 -&gt; 52 -&gt; 49 -&gt; 60 -&gt; 54 -&gt; 37 -&gt; 44 -&gt; 24 -&gt; 69 -&gt; 21 -&gt; 65 -&gt; 66 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 15 -&gt; 1 -&gt; 5 -&gt; 8 -&gt; 79 -&gt; 18 -&gt; 16 -&gt; 74 -&gt; 2 -&gt; 41 -&gt; 53 -&gt; 38 -&gt; 20 -&gt; 26 -&gt; 34 -&gt; 13 -&gt; 35 -&gt; 36 -&gt; 46 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>23 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 42 -&gt; 48 -&gt; 50 -&gt; 52 -&gt; 50 -&gt; 49 -&gt; 53 -&gt; 55 -&gt; 57 -&gt; 60 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 54 -&gt; 51 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 41 -&gt; 38 -&gt; 37 -&gt; 38 -&gt; 41 -&gt; 44 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 69 -&gt; 68 -&gt; 67 -&gt; 21 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 66 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 72 -&gt; 10 -&gt; 14 -&gt; 15 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 80 -&gt; 79 -&gt; 80 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 14 -&gt; 15 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 4 -&gt; 74 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 44 -&gt; 43 -&gt; 45 -&gt; 49 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 41 -&gt; 38 -&gt; 31 -&gt; 20 -&gt; 31 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 29 -&gt; 13 -&gt; 29 -&gt; 35 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 36 -&gt; 37 -&gt; 38 -&gt; 41 -&gt; 44 -&gt; 46 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 23</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.286785364151001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>11301.5</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>12206</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9912</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.3182617584864298</v>
+        <v>11222</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15, 4, 41, 53, 23, 37, 62, 78, 24, 27, 68, 52, 51, 57, 28, 1, 44, 80, 77, 69, 35, 20, 26, 10, 2, 29, 79, 31, 75, 7, 22, 38, 47, 32, 67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48 -&gt; 52 -&gt; 62 -&gt; 32 -&gt; 24 -&gt; 51 -&gt; 20 -&gt; 28 -&gt; 29 -&gt; 31 -&gt; 35 -&gt; 15 -&gt; 68 -&gt; 69 -&gt; 67 -&gt; 23 -&gt; 22 -&gt; 75 -&gt; 80 -&gt; 2 -&gt; 38 -&gt; 41 -&gt; 44 -&gt; 47 -&gt; 37 -&gt; 26 -&gt; 4 -&gt; 10 -&gt; 1 -&gt; 77 -&gt; 78 -&gt; 79 -&gt; 27 -&gt; 7 -&gt; 57 -&gt; 53 -&gt; 48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>48 -&gt; 50 -&gt; 52 -&gt; 51 -&gt; 54 -&gt; 56 -&gt; 59 -&gt; 58 -&gt; 62 -&gt; 61 -&gt; 64 -&gt; 65 -&gt; 66 -&gt; 22 -&gt; 23 -&gt; 24 -&gt; 32 -&gt; 24 -&gt; 32 -&gt; 44 -&gt; 43 -&gt; 45 -&gt; 49 -&gt; 51 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 20 -&gt; 31 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 30 -&gt; 29 -&gt; 35 -&gt; 29 -&gt; 30 -&gt; 17 -&gt; 16 -&gt; 15 -&gt; 14 -&gt; 18 -&gt; 68 -&gt; 69 -&gt; 68 -&gt; 67 -&gt; 21 -&gt; 22 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 71 -&gt; 73 -&gt; 75 -&gt; 74 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 80 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 31 -&gt; 38 -&gt; 41 -&gt; 44 -&gt; 46 -&gt; 47 -&gt; 46 -&gt; 44 -&gt; 41 -&gt; 38 -&gt; 37 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 5 -&gt; 4 -&gt; 7 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 77 -&gt; 78 -&gt; 79 -&gt; 81 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 60 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 46 -&gt; 47 -&gt; 48</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.2900838851928711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>11567</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>12291</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10647</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3188205798467</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11638.86666666667</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12278</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10103</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3092975616455078</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11360.6</v>
-      </c>
-      <c r="C6" t="n">
-        <v>12100</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10414</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.2183735211690267</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>11999</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12618</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10558</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.262743886311849</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>11610.66666666667</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12064</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10942</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3224154869715373</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>10781.13333333333</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11476</v>
-      </c>
-      <c r="D9" t="n">
-        <v>9817</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3177411158879598</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>11098.4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>11671</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9756</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.3086497704188029</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>11456.66666666667</v>
-      </c>
-      <c r="C11" t="n">
-        <v>12405</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10351</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.3116428852081299</v>
+        <v>10811</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63, 64, 40, 34, 31, 1, 29, 21, 76, 17, 47, 20, 11, 5, 9, 51, 2, 26, 27, 61, 60, 68, 37, 6, 41, 35, 45, 48, 33, 56, 72, 25, 10, 16, 7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>11 -&gt; 11 -&gt; 9 -&gt; 6 -&gt; 5 -&gt; 34 -&gt; 29 -&gt; 35 -&gt; 37 -&gt; 41 -&gt; 31 -&gt; 40 -&gt; 48 -&gt; 47 -&gt; 68 -&gt; 16 -&gt; 2 -&gt; 72 -&gt; 10 -&gt; 7 -&gt; 26 -&gt; 25 -&gt; 20 -&gt; 27 -&gt; 33 -&gt; 21 -&gt; 64 -&gt; 61 -&gt; 60 -&gt; 45 -&gt; 56 -&gt; 63 -&gt; 51 -&gt; 17 -&gt; 1 -&gt; 76 -&gt; 11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>11 -&gt; 12 -&gt; 8 -&gt; 9 -&gt; 6 -&gt; 5 -&gt; 8 -&gt; 9 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 29 -&gt; 35 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 38 -&gt; 41 -&gt; 32 -&gt; 31 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 42 -&gt; 48 -&gt; 47 -&gt; 46 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 18 -&gt; 14 -&gt; 15 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 72 -&gt; 10 -&gt; 7 -&gt; 8 -&gt; 5 -&gt; 6 -&gt; 27 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 31 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 33 -&gt; 27 -&gt; 6 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 60 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 49 -&gt; 51 -&gt; 54 -&gt; 56 -&gt; 59 -&gt; 63 -&gt; 59 -&gt; 56 -&gt; 54 -&gt; 51 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 4 -&gt; 1 -&gt; 77 -&gt; 76 -&gt; 74 -&gt; 72 -&gt; 10 -&gt; 11</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2758884429931641</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/BCU/PLN_81_35.xlsx
+++ b/Algoritmo_Rota/Planilhas/BCU/PLN_81_35.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,30 +429,20 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>inicio</t>
+          <t>Distancia</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Distancia</t>
+          <t>max</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ativos</t>
+          <t>min</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
-        <is>
-          <t>melhor rota</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>caminho</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -463,86 +453,169 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>10917.3</v>
       </c>
       <c r="C2" t="n">
-        <v>11538</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>67, 20, 2, 46, 8, 26, 79, 49, 74, 70, 65, 1, 16, 21, 34, 13, 68, 54, 24, 15, 35, 44, 48, 5, 60, 42, 18, 41, 53, 36, 69, 38, 66, 37, 52</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>23 -&gt; 42 -&gt; 48 -&gt; 52 -&gt; 49 -&gt; 60 -&gt; 54 -&gt; 37 -&gt; 44 -&gt; 24 -&gt; 69 -&gt; 21 -&gt; 65 -&gt; 66 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 15 -&gt; 1 -&gt; 5 -&gt; 8 -&gt; 79 -&gt; 18 -&gt; 16 -&gt; 74 -&gt; 2 -&gt; 41 -&gt; 53 -&gt; 38 -&gt; 20 -&gt; 26 -&gt; 34 -&gt; 13 -&gt; 35 -&gt; 36 -&gt; 46 -&gt; 23</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>23 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 42 -&gt; 48 -&gt; 50 -&gt; 52 -&gt; 50 -&gt; 49 -&gt; 53 -&gt; 55 -&gt; 57 -&gt; 60 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 54 -&gt; 51 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 41 -&gt; 38 -&gt; 37 -&gt; 38 -&gt; 41 -&gt; 44 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 69 -&gt; 68 -&gt; 67 -&gt; 21 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 66 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 72 -&gt; 10 -&gt; 14 -&gt; 15 -&gt; 14 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 80 -&gt; 79 -&gt; 80 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 14 -&gt; 15 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 4 -&gt; 74 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 24 -&gt; 32 -&gt; 41 -&gt; 44 -&gt; 43 -&gt; 45 -&gt; 49 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 41 -&gt; 38 -&gt; 31 -&gt; 20 -&gt; 31 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 29 -&gt; 13 -&gt; 29 -&gt; 35 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 36 -&gt; 37 -&gt; 38 -&gt; 41 -&gt; 44 -&gt; 46 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 23</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>0.286785364151001</v>
+        <v>11579</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9364</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2509726285934448</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>48</v>
+        <v>11066.46666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>11222</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15, 4, 41, 53, 23, 37, 62, 78, 24, 27, 68, 52, 51, 57, 28, 1, 44, 80, 77, 69, 35, 20, 26, 10, 2, 29, 79, 31, 75, 7, 22, 38, 47, 32, 67</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>48 -&gt; 52 -&gt; 62 -&gt; 32 -&gt; 24 -&gt; 51 -&gt; 20 -&gt; 28 -&gt; 29 -&gt; 31 -&gt; 35 -&gt; 15 -&gt; 68 -&gt; 69 -&gt; 67 -&gt; 23 -&gt; 22 -&gt; 75 -&gt; 80 -&gt; 2 -&gt; 38 -&gt; 41 -&gt; 44 -&gt; 47 -&gt; 37 -&gt; 26 -&gt; 4 -&gt; 10 -&gt; 1 -&gt; 77 -&gt; 78 -&gt; 79 -&gt; 27 -&gt; 7 -&gt; 57 -&gt; 53 -&gt; 48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>48 -&gt; 50 -&gt; 52 -&gt; 51 -&gt; 54 -&gt; 56 -&gt; 59 -&gt; 58 -&gt; 62 -&gt; 61 -&gt; 64 -&gt; 65 -&gt; 66 -&gt; 22 -&gt; 23 -&gt; 24 -&gt; 32 -&gt; 24 -&gt; 32 -&gt; 44 -&gt; 43 -&gt; 45 -&gt; 49 -&gt; 51 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 20 -&gt; 31 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 29 -&gt; 30 -&gt; 31 -&gt; 30 -&gt; 29 -&gt; 35 -&gt; 29 -&gt; 30 -&gt; 17 -&gt; 16 -&gt; 15 -&gt; 14 -&gt; 18 -&gt; 68 -&gt; 69 -&gt; 68 -&gt; 67 -&gt; 21 -&gt; 22 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 70 -&gt; 71 -&gt; 73 -&gt; 75 -&gt; 74 -&gt; 4 -&gt; 1 -&gt; 2 -&gt; 80 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 12 -&gt; 16 -&gt; 17 -&gt; 20 -&gt; 31 -&gt; 38 -&gt; 41 -&gt; 44 -&gt; 46 -&gt; 47 -&gt; 46 -&gt; 44 -&gt; 41 -&gt; 38 -&gt; 37 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 5 -&gt; 4 -&gt; 7 -&gt; 10 -&gt; 7 -&gt; 4 -&gt; 1 -&gt; 77 -&gt; 78 -&gt; 79 -&gt; 81 -&gt; 3 -&gt; 25 -&gt; 26 -&gt; 27 -&gt; 6 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 60 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 46 -&gt; 47 -&gt; 48</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0.2900838851928711</v>
+        <v>11859</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9396</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2598573048909505</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>10921.36666666667</v>
       </c>
       <c r="C4" t="n">
-        <v>10811</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>63, 64, 40, 34, 31, 1, 29, 21, 76, 17, 47, 20, 11, 5, 9, 51, 2, 26, 27, 61, 60, 68, 37, 6, 41, 35, 45, 48, 33, 56, 72, 25, 10, 16, 7</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>11 -&gt; 11 -&gt; 9 -&gt; 6 -&gt; 5 -&gt; 34 -&gt; 29 -&gt; 35 -&gt; 37 -&gt; 41 -&gt; 31 -&gt; 40 -&gt; 48 -&gt; 47 -&gt; 68 -&gt; 16 -&gt; 2 -&gt; 72 -&gt; 10 -&gt; 7 -&gt; 26 -&gt; 25 -&gt; 20 -&gt; 27 -&gt; 33 -&gt; 21 -&gt; 64 -&gt; 61 -&gt; 60 -&gt; 45 -&gt; 56 -&gt; 63 -&gt; 51 -&gt; 17 -&gt; 1 -&gt; 76 -&gt; 11</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>11 -&gt; 12 -&gt; 8 -&gt; 9 -&gt; 6 -&gt; 5 -&gt; 8 -&gt; 9 -&gt; 28 -&gt; 34 -&gt; 28 -&gt; 29 -&gt; 35 -&gt; 29 -&gt; 30 -&gt; 37 -&gt; 38 -&gt; 41 -&gt; 32 -&gt; 31 -&gt; 38 -&gt; 39 -&gt; 40 -&gt; 42 -&gt; 48 -&gt; 47 -&gt; 46 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 23 -&gt; 22 -&gt; 21 -&gt; 67 -&gt; 68 -&gt; 18 -&gt; 14 -&gt; 15 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 2 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 72 -&gt; 10 -&gt; 7 -&gt; 8 -&gt; 5 -&gt; 6 -&gt; 27 -&gt; 26 -&gt; 25 -&gt; 3 -&gt; 6 -&gt; 9 -&gt; 13 -&gt; 17 -&gt; 20 -&gt; 31 -&gt; 30 -&gt; 29 -&gt; 28 -&gt; 27 -&gt; 33 -&gt; 27 -&gt; 6 -&gt; 5 -&gt; 8 -&gt; 7 -&gt; 10 -&gt; 14 -&gt; 18 -&gt; 21 -&gt; 22 -&gt; 66 -&gt; 65 -&gt; 64 -&gt; 61 -&gt; 60 -&gt; 57 -&gt; 55 -&gt; 53 -&gt; 49 -&gt; 45 -&gt; 49 -&gt; 51 -&gt; 54 -&gt; 56 -&gt; 59 -&gt; 63 -&gt; 59 -&gt; 56 -&gt; 54 -&gt; 51 -&gt; 49 -&gt; 45 -&gt; 43 -&gt; 32 -&gt; 24 -&gt; 20 -&gt; 17 -&gt; 16 -&gt; 12 -&gt; 8 -&gt; 5 -&gt; 4 -&gt; 1 -&gt; 77 -&gt; 76 -&gt; 74 -&gt; 72 -&gt; 10 -&gt; 11</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0.2758884429931641</v>
+        <v>11558</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9991</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3281592528025309</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11558.53333333333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12256</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10469</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3025633017222086</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10512.93333333333</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11319</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9611</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.3081936359405518</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11466.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12369</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9922</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.298317281405131</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11013.23333333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11835</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10138</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.3340381781260173</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10743.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11548</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10143</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3538715442021688</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10653.63333333333</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11415</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9151</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2255171696345011</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10609.66666666667</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11597</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9665</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2707310358683268</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/BCU/PLN_81_35.xlsx
+++ b/Algoritmo_Rota/Planilhas/BCU/PLN_81_35.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,25 +424,20 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Índice</t>
+          <t>Qtd_Nós</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
+        <is>
+          <t>Ativos</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -450,172 +445,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="B2" t="n">
-        <v>10917.3</v>
+        <v>35</v>
       </c>
       <c r="C2" t="n">
-        <v>11579</v>
+        <v>11538</v>
       </c>
       <c r="D2" t="n">
-        <v>9364</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.2509726285934448</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>11066.46666666667</v>
-      </c>
-      <c r="C3" t="n">
-        <v>11859</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9396</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.2598573048909505</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>10921.36666666667</v>
-      </c>
-      <c r="C4" t="n">
-        <v>11558</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9991</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.3281592528025309</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11558.53333333333</v>
-      </c>
-      <c r="C5" t="n">
-        <v>12256</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10469</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.3025633017222086</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>10512.93333333333</v>
-      </c>
-      <c r="C6" t="n">
-        <v>11319</v>
-      </c>
-      <c r="D6" t="n">
-        <v>9611</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3081936359405518</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>11466.9</v>
-      </c>
-      <c r="C7" t="n">
-        <v>12369</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9922</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.298317281405131</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>11013.23333333333</v>
-      </c>
-      <c r="C8" t="n">
-        <v>11835</v>
-      </c>
-      <c r="D8" t="n">
-        <v>10138</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.3340381781260173</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>10743.9</v>
-      </c>
-      <c r="C9" t="n">
-        <v>11548</v>
-      </c>
-      <c r="D9" t="n">
-        <v>10143</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.3538715442021688</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>10653.63333333333</v>
-      </c>
-      <c r="C10" t="n">
-        <v>11415</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9151</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2255171696345011</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>10609.66666666667</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11597</v>
-      </c>
-      <c r="D11" t="n">
-        <v>9665</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.2707310358683268</v>
+        <v>0.2519369125366211</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/BCU/PLN_81_35.xlsx
+++ b/Algoritmo_Rota/Planilhas/BCU/PLN_81_35.xlsx
@@ -454,7 +454,7 @@
         <v>11538</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2519369125366211</v>
+        <v>0.2626147270202637</v>
       </c>
     </row>
   </sheetData>

--- a/Algoritmo_Rota/Planilhas/BCU/PLN_81_35.xlsx
+++ b/Algoritmo_Rota/Planilhas/BCU/PLN_81_35.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,20 +424,25 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Qtd_Nós</t>
+          <t>Índice</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>Ativos</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>Distancia</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Tempo</t>
         </is>
@@ -445,16 +450,172 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>10917.3</v>
       </c>
       <c r="C2" t="n">
-        <v>11538</v>
+        <v>11579</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2626147270202637</v>
+        <v>9364</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.2545408407847087</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11066.46666666667</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11859</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9396</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.2628584702809652</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10921.36666666667</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11558</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9991</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.2602198918660482</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11558.53333333333</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12256</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10469</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2579678297042847</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10512.93333333333</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11319</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9611</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2498527447382609</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>11466.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12369</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9922</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.2650693655014038</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11013.23333333333</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11835</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10138</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2650287469228109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>10743.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11548</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10143</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.2595669507980347</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>10653.63333333333</v>
+      </c>
+      <c r="C10" t="n">
+        <v>11415</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9151</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2526545921961467</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10609.66666666667</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11597</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9665</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.2554513454437256</v>
       </c>
     </row>
   </sheetData>
